--- a/export/change reports/change_report 2023-10-12.xlsx
+++ b/export/change reports/change_report 2023-10-12.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45211.52463916665</v>
+        <v>45211.53610252775</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1067"/>
+  <dimension ref="A1:I1119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48500,6 +48500,2346 @@
         </is>
       </c>
     </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:38,867</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1068" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1068" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1068" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1068" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1068" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I1068" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:38,868</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1069" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1069" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1069" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1069" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1069" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I1069" t="inlineStr">
+        <is>
+          <t>RER</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:38,868</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1070" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1070" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1070" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1070" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1070" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I1070" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:38,868</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1071" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1071" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1071" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1071" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1071" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I1071" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:38,868</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1072" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1072" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1072" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1072" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1072" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I1072" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:38,868</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1073" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1073" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1073" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1073" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1073" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I1073" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:38,869</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1074" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1074" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1074" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1074" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1074" t="inlineStr">
+        <is>
+          <t>market for heat pump, heat and power co-generation unit, 160kW electrical</t>
+        </is>
+      </c>
+      <c r="I1074" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:38,869</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1075" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1075" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1075" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1075" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1075" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I1075" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:38,869</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1076" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1076" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1076" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1076" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1076" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I1076" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:38,869</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1077" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1077" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1077" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1077" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1077" t="inlineStr">
+        <is>
+          <t>battery cell production, NMC-622</t>
+        </is>
+      </c>
+      <c r="I1077" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:38,869</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1078" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1078" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1078" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1078" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1078" t="inlineStr">
+        <is>
+          <t>battery cell production, PLIB</t>
+        </is>
+      </c>
+      <c r="I1078" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:39,217</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1079" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E1079" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1079" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1079" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1079" t="inlineStr">
+        <is>
+          <t>market for battery cell production</t>
+        </is>
+      </c>
+      <c r="I1079" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:39,230</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1080" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E1080" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1080" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1080" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1080" t="inlineStr">
+        <is>
+          <t>market for heat</t>
+        </is>
+      </c>
+      <c r="I1080" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:40,322</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1081" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1081" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1081" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1081" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1081" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I1081" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:40,323</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1082" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1082" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1082" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1082" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I1082" t="inlineStr">
+        <is>
+          <t>RER</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:40,323</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1083" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1083" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1083" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1083" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I1083" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:40,323</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1084" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1084" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1084" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1084" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I1084" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:40,323</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1085" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1085" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1085" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1085" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I1085" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:40,323</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1086" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1086" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1086" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1086" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I1086" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:40,324</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1087" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1087" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1087" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1087" t="inlineStr">
+        <is>
+          <t>market for heat pump, heat and power co-generation unit, 160kW electrical</t>
+        </is>
+      </c>
+      <c r="I1087" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:40,324</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1088" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1088" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1088" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1088" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I1088" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:40,324</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1089" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1089" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1089" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1089" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I1089" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:40,324</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1090" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1090" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1090" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1090" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1090" t="inlineStr">
+        <is>
+          <t>battery cell production, NMC-622</t>
+        </is>
+      </c>
+      <c r="I1090" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:40,324</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1091" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1091" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1091" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1091" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1091" t="inlineStr">
+        <is>
+          <t>battery cell production, PLIB</t>
+        </is>
+      </c>
+      <c r="I1091" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:40,671</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1092" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E1092" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1092" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1092" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1092" t="inlineStr">
+        <is>
+          <t>market for battery cell production</t>
+        </is>
+      </c>
+      <c r="I1092" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:40,684</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1093" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E1093" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1093" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G1093" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1093" t="inlineStr">
+        <is>
+          <t>market for heat</t>
+        </is>
+      </c>
+      <c r="I1093" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:41,744</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1094" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1094" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1094" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1094" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1094" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I1094" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:41,745</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1095" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1095" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1095" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1095" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1095" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I1095" t="inlineStr">
+        <is>
+          <t>RER</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:41,745</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1096" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1096" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1096" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1096" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I1096" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:41,745</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1097" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1097" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1097" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1097" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1097" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I1097" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:41,745</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1098" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1098" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1098" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1098" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1098" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I1098" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:41,746</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1099" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1099" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1099" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1099" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1099" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I1099" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:41,746</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1100" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1100" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1100" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1100" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1100" t="inlineStr">
+        <is>
+          <t>market for heat pump, heat and power co-generation unit, 160kW electrical</t>
+        </is>
+      </c>
+      <c r="I1100" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:41,746</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1101" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1101" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1101" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1101" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1101" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I1101" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:41,746</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1102" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1102" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1102" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1102" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1102" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I1102" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:41,746</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1103" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1103" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1103" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1103" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1103" t="inlineStr">
+        <is>
+          <t>battery cell production, NMC-622</t>
+        </is>
+      </c>
+      <c r="I1103" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:41,746</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1104" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1104" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1104" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1104" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1104" t="inlineStr">
+        <is>
+          <t>battery cell production, PLIB</t>
+        </is>
+      </c>
+      <c r="I1104" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:42,104</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1105" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E1105" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1105" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1105" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1105" t="inlineStr">
+        <is>
+          <t>market for battery cell production</t>
+        </is>
+      </c>
+      <c r="I1105" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:42,116</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1106" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E1106" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1106" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1106" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H1106" t="inlineStr">
+        <is>
+          <t>market for heat</t>
+        </is>
+      </c>
+      <c r="I1106" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:43,203</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1107" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1107" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1107" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1107" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1107" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I1107" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:43,204</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1108" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1108" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1108" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1108" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1108" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I1108" t="inlineStr">
+        <is>
+          <t>RER</t>
+        </is>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:43,204</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1109" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1109" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1109" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1109" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1109" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I1109" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:43,204</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1110" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1110" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1110" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1110" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1110" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I1110" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:43,204</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1111" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1111" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1111" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1111" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1111" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I1111" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:43,204</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1112" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1112" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1112" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1112" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1112" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I1112" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:43,205</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1113" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1113" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1113" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1113" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1113" t="inlineStr">
+        <is>
+          <t>market for heat pump, heat and power co-generation unit, 160kW electrical</t>
+        </is>
+      </c>
+      <c r="I1113" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:43,205</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1114" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1114" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1114" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1114" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1114" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I1114" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:43,205</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1115" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1115" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1115" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1115" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1115" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I1115" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:43,205</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1116" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1116" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1116" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1116" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1116" t="inlineStr">
+        <is>
+          <t>battery cell production, NMC-622</t>
+        </is>
+      </c>
+      <c r="I1116" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:43,205</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1117" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E1117" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1117" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1117" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1117" t="inlineStr">
+        <is>
+          <t>battery cell production, PLIB</t>
+        </is>
+      </c>
+      <c r="I1117" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:43,572</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1118" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E1118" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1118" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1118" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1118" t="inlineStr">
+        <is>
+          <t>market for battery cell production</t>
+        </is>
+      </c>
+      <c r="I1118" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>2023-10-12 12:44:43,585</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C1119" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D1119" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E1119" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1119" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G1119" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1119" t="inlineStr">
+        <is>
+          <t>market for heat</t>
+        </is>
+      </c>
+      <c r="I1119" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/export/change reports/change_report 2023-10-12.xlsx
+++ b/export/change reports/change_report 2023-10-12.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45211.568239365</v>
+        <v>45211.59965800553</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2960,6 +2960,591 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:21:00,045</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:21:00,045</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>RER</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:21:00,045</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:21:00,045</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:21:00,046</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:21:00,046</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:21:00,046</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>market for heat pump, heat and power co-generation unit, 160kW electrical</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:21:00,046</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:21:00,046</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:21:00,047</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>battery cell production, NMC-622</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:21:00,047</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>battery cell production, PLIB</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:21:00,413</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>market for battery cell production</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:21:00,428</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>market for heat</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/export/change reports/change_report 2023-10-12.xlsx
+++ b/export/change reports/change_report 2023-10-12.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45211.59965800553</v>
+        <v>45211.6727579039</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +623,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:26,569</t>
+          <t>2023-10-12 13:54:20,675</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -668,7 +668,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:26,570</t>
+          <t>2023-10-12 13:54:20,677</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:26,570</t>
+          <t>2023-10-12 13:54:20,677</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -758,7 +758,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:26,570</t>
+          <t>2023-10-12 13:54:20,677</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -803,7 +803,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:26,570</t>
+          <t>2023-10-12 13:54:20,678</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -848,7 +848,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:26,571</t>
+          <t>2023-10-12 13:54:20,679</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -893,7 +893,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:26,571</t>
+          <t>2023-10-12 13:54:20,679</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -938,7 +938,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:26,571</t>
+          <t>2023-10-12 13:54:20,680</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -983,7 +983,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:26,571</t>
+          <t>2023-10-12 13:54:20,680</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1028,7 +1028,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:26,571</t>
+          <t>2023-10-12 13:54:20,680</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1073,7 +1073,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:26,571</t>
+          <t>2023-10-12 13:54:20,680</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1118,7 +1118,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:27,156</t>
+          <t>2023-10-12 13:54:21,382</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1163,7 +1163,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:27,171</t>
+          <t>2023-10-12 13:54:21,399</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1208,7 +1208,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:28,238</t>
+          <t>2023-10-12 13:54:22,861</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1253,7 +1253,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:28,238</t>
+          <t>2023-10-12 13:54:22,862</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1298,7 +1298,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:28,238</t>
+          <t>2023-10-12 13:54:22,862</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1343,7 +1343,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:28,239</t>
+          <t>2023-10-12 13:54:22,862</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1388,7 +1388,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:28,239</t>
+          <t>2023-10-12 13:54:22,863</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1433,7 +1433,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:28,239</t>
+          <t>2023-10-12 13:54:22,864</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1478,7 +1478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:28,239</t>
+          <t>2023-10-12 13:54:22,864</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1523,7 +1523,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:28,240</t>
+          <t>2023-10-12 13:54:22,864</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:28,240</t>
+          <t>2023-10-12 13:54:22,865</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1613,7 +1613,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:28,240</t>
+          <t>2023-10-12 13:54:22,865</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1658,7 +1658,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:28,240</t>
+          <t>2023-10-12 13:54:22,865</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1703,7 +1703,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:28,600</t>
+          <t>2023-10-12 13:54:23,535</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1748,7 +1748,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:28,612</t>
+          <t>2023-10-12 13:54:23,566</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1793,7 +1793,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:29,698</t>
+          <t>2023-10-12 13:54:25,154</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1838,7 +1838,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:29,699</t>
+          <t>2023-10-12 13:54:25,155</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1883,7 +1883,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:29,699</t>
+          <t>2023-10-12 13:54:25,155</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:29,699</t>
+          <t>2023-10-12 13:54:25,156</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1973,7 +1973,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:29,699</t>
+          <t>2023-10-12 13:54:25,157</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2018,7 +2018,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:29,700</t>
+          <t>2023-10-12 13:54:25,158</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2063,7 +2063,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:29,700</t>
+          <t>2023-10-12 13:54:25,158</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2108,7 +2108,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:29,700</t>
+          <t>2023-10-12 13:54:25,158</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2153,7 +2153,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:29,700</t>
+          <t>2023-10-12 13:54:25,159</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2198,7 +2198,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:29,700</t>
+          <t>2023-10-12 13:54:25,159</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2243,7 +2243,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:29,700</t>
+          <t>2023-10-12 13:54:25,159</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2288,7 +2288,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:30,071</t>
+          <t>2023-10-12 13:54:25,806</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2333,7 +2333,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:30,085</t>
+          <t>2023-10-12 13:54:25,828</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2378,7 +2378,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:31,143</t>
+          <t>2023-10-12 13:54:27,416</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2423,7 +2423,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:31,144</t>
+          <t>2023-10-12 13:54:27,416</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2468,7 +2468,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:31,144</t>
+          <t>2023-10-12 13:54:27,416</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2513,7 +2513,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:31,144</t>
+          <t>2023-10-12 13:54:27,417</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2558,7 +2558,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:31,144</t>
+          <t>2023-10-12 13:54:27,417</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2603,7 +2603,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:31,145</t>
+          <t>2023-10-12 13:54:27,417</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2648,7 +2648,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:31,145</t>
+          <t>2023-10-12 13:54:27,417</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2693,7 +2693,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:31,145</t>
+          <t>2023-10-12 13:54:27,418</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2738,7 +2738,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:31,145</t>
+          <t>2023-10-12 13:54:27,418</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2783,7 +2783,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:31,145</t>
+          <t>2023-10-12 13:54:27,418</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2828,7 +2828,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:31,145</t>
+          <t>2023-10-12 13:54:27,418</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2873,7 +2873,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:31,503</t>
+          <t>2023-10-12 13:54:27,863</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2918,7 +2918,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2023-10-12 13:35:31,517</t>
+          <t>2023-10-12 13:54:27,889</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2963,7 +2963,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2023-10-12 14:21:00,045</t>
+          <t>2023-10-12 16:05:32,301</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2988,11 +2988,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SSP2-RCP26</t>
+          <t>SSP2-Base</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2023-10-12 14:21:00,045</t>
+          <t>2023-10-12 16:05:32,301</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3033,11 +3033,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>SSP2-RCP26</t>
+          <t>SSP2-Base</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2023-10-12 14:21:00,045</t>
+          <t>2023-10-12 16:05:32,301</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3078,11 +3078,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>SSP2-RCP26</t>
+          <t>SSP2-Base</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2023-10-12 14:21:00,045</t>
+          <t>2023-10-12 16:05:32,302</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3123,11 +3123,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>SSP2-RCP26</t>
+          <t>SSP2-Base</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2023-10-12 14:21:00,046</t>
+          <t>2023-10-12 16:05:32,302</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3168,11 +3168,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>SSP2-RCP26</t>
+          <t>SSP2-Base</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2023-10-12 14:21:00,046</t>
+          <t>2023-10-12 16:05:32,302</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3213,11 +3213,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>SSP2-RCP26</t>
+          <t>SSP2-Base</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2023-10-12 14:21:00,046</t>
+          <t>2023-10-12 16:05:32,303</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3258,11 +3258,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>SSP2-RCP26</t>
+          <t>SSP2-Base</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2023-10-12 14:21:00,046</t>
+          <t>2023-10-12 16:05:32,303</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3303,11 +3303,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>SSP2-RCP26</t>
+          <t>SSP2-Base</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2023-10-12 14:21:00,046</t>
+          <t>2023-10-12 16:05:32,303</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3348,11 +3348,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>SSP2-RCP26</t>
+          <t>SSP2-Base</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2023-10-12 14:21:00,047</t>
+          <t>2023-10-12 16:05:32,303</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3393,11 +3393,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>SSP2-RCP26</t>
+          <t>SSP2-Base</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2023-10-12 14:21:00,047</t>
+          <t>2023-10-12 16:05:32,303</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3438,11 +3438,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>SSP2-RCP26</t>
+          <t>SSP2-Base</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2023-10-12 14:21:00,413</t>
+          <t>2023-10-12 16:05:32,653</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3483,11 +3483,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>SSP2-RCP26</t>
+          <t>SSP2-Base</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2023-10-12 14:21:00,428</t>
+          <t>2023-10-12 16:05:32,665</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3528,18 +3528,1773 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>market for heat</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:34,308</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:34,308</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>RER</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:34,308</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:34,308</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:34,309</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:34,309</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:34,310</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>market for heat pump, heat and power co-generation unit, 160kW electrical</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:34,310</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:34,310</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:34,310</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>battery cell production, NMC-622</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:34,310</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>battery cell production, PLIB</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:34,656</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>market for battery cell production</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:34,668</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>market for heat</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:36,086</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
           <t>SSP2-RCP26</t>
         </is>
       </c>
-      <c r="G68" t="n">
+      <c r="G82" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:36,087</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>RER</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:36,087</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:36,087</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:36,088</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:36,088</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:36,088</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>market for heat pump, heat and power co-generation unit, 160kW electrical</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:36,088</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:36,088</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:36,089</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>battery cell production, NMC-622</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:36,089</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>battery cell production, PLIB</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:36,444</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>market for battery cell production</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:36,456</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>market for heat</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:37,551</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
         <v>2040</v>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:37,552</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>RER</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:37,552</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:37,552</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:37,552</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:37,553</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:37,553</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>market for heat pump, heat and power co-generation unit, 160kW electrical</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:37,553</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:37,553</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:37,553</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>battery cell production, NMC-622</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:37,554</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>battery cell production, PLIB</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:37,920</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>market for battery cell production</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2023-10-12 16:05:37,933</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H107" t="inlineStr">
         <is>
           <t>market for heat</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>GLO</t>
         </is>

--- a/export/change reports/change_report 2023-10-12.xlsx
+++ b/export/change reports/change_report 2023-10-12.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45211.59965800553</v>
+        <v>45211.64983435021</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3545,6 +3545,2931 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:54:25,778</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:54:25,779</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>RER</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:54:25,779</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:54:25,779</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:54:25,780</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:54:25,781</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:54:25,781</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>market for heat pump, heat and power co-generation unit, 160kW electrical</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:54:25,781</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:54:25,782</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:54:25,782</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>battery cell production, NMC-622</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:54:25,782</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>battery cell production, PLIB</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:54:26,342</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>market for battery cell production</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2023-10-12 14:54:26,363</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>market for heat</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:51,777</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:51,778</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>RER</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:51,778</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:51,778</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:51,779</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:51,779</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:51,779</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>market for heat pump, heat and power co-generation unit, 160kW electrical</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:51,779</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:51,780</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:51,780</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>battery cell production, NMC-622</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:51,780</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>battery cell production, PLIB</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:52,240</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>market for battery cell production</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:52,260</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>market for heat</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:53,747</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:53,748</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>RER</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:53,748</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:53,748</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:53,749</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:53,749</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:53,749</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>market for heat pump, heat and power co-generation unit, 160kW electrical</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:53,749</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:53,750</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:53,750</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>battery cell production, NMC-622</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:53,750</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>battery cell production, PLIB</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:54,128</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>market for battery cell production</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:54,141</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>SSP2-Base</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>market for heat</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:55,697</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:55,698</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>RER</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:55,698</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:55,698</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:55,698</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:55,699</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:55,699</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>market for heat pump, heat and power co-generation unit, 160kW electrical</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:55,699</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:55,699</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:55,699</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>battery cell production, NMC-622</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:55,699</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>battery cell production, PLIB</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:56,463</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>market for battery cell production</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:56,477</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>market for heat</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:57,702</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:57,702</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>RER</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:57,702</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:57,703</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NMC811</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:57,703</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:57,703</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>market group for heat, district or industrial, natural gas</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:57,704</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>market for heat pump, heat and power co-generation unit, 160kW electrical</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:57,704</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, NCA</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:57,704</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>battery cell production, Li-ion, LFP</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>RoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:57,704</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>battery cell production, NMC-622</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:57,704</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>battery cell production, PLIB</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:58,081</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>market for battery cell production</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2023-10-12 15:32:58,099</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>SSP2-RCP26</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>market for heat</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>GLO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/export/change reports/change_report 2023-10-12.xlsx
+++ b/export/change reports/change_report 2023-10-12.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45211.6727579039</v>
+        <v>45211.78723411869</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +623,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:20,675</t>
+          <t>2023-10-12 18:50:28,798</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -668,7 +668,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:20,677</t>
+          <t>2023-10-12 18:50:28,799</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>market group for heat, district or industrial, natural gas</t>
+          <t>heat production, at heat pump 30kW, allocation exergy</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>RER</t>
+          <t>Europe without Switzerland</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:20,677</t>
+          <t>2023-10-12 18:50:28,800</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -746,19 +746,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, NMC811</t>
+          <t>market group for heat, district or industrial, natural gas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>RER</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:20,677</t>
+          <t>2023-10-12 18:50:28,800</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -796,14 +796,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>RoW</t>
+          <t>CN</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:20,678</t>
+          <t>2023-10-12 18:50:28,800</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -836,19 +836,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, NCA</t>
+          <t>heat production, at heat pump 30kW, allocation exergy</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CH</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:20,679</t>
+          <t>2023-10-12 18:50:28,800</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -881,19 +881,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>market group for heat, district or industrial, natural gas</t>
+          <t>battery cell production, Li-ion, NMC811</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>GLO</t>
+          <t>RoW</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:20,679</t>
+          <t>2023-10-12 18:50:28,800</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -926,19 +926,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>market for heat pump, heat and power co-generation unit, 160kW electrical</t>
+          <t>heat production, at heat pump 30kW, allocation exergy</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>GLO</t>
+          <t>RoW</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:20,680</t>
+          <t>2023-10-12 18:50:28,801</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -976,14 +976,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>RoW</t>
+          <t>CN</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:20,680</t>
+          <t>2023-10-12 18:50:28,802</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1016,19 +1016,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, LFP</t>
+          <t>market group for heat, district or industrial, natural gas</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>RoW</t>
+          <t>GLO</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:20,680</t>
+          <t>2023-10-12 18:50:28,803</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1061,19 +1061,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>battery cell production, NMC-622</t>
+          <t>battery cell production, Li-ion, NCA</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>GLO</t>
+          <t>RoW</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:20,680</t>
+          <t>2023-10-12 18:50:28,803</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1106,19 +1106,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>battery cell production, PLIB</t>
+          <t>battery cell production, Li-ion, LFP</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>GLO</t>
+          <t>RoW</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:21,382</t>
+          <t>2023-10-12 18:50:28,804</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>created</t>
+          <t>updated</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>market for battery cell production</t>
+          <t>battery cell production, NMC-622</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1163,7 +1163,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:21,399</t>
+          <t>2023-10-12 18:50:28,804</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>created</t>
+          <t>updated</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>market for heat</t>
+          <t>battery cell production, PLIB</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1208,7 +1208,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:22,861</t>
+          <t>2023-10-12 18:50:30,064</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>updated</t>
+          <t>created</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1237,23 +1237,23 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, LFP</t>
+          <t>market for battery cell production</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GLO</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:22,862</t>
+          <t>2023-10-12 18:50:30,105</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>updated</t>
+          <t>created</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1282,23 +1282,23 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>market group for heat, district or industrial, natural gas</t>
+          <t>market for heat</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>RER</t>
+          <t>GLO</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:22,862</t>
+          <t>2023-10-12 18:50:31,798</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, NMC811</t>
+          <t>battery cell production, Li-ion, LFP</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1343,7 +1343,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:22,862</t>
+          <t>2023-10-12 18:50:31,799</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1376,19 +1376,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, NMC811</t>
+          <t>heat production, at heat pump 30kW, allocation exergy</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>RoW</t>
+          <t>Europe without Switzerland</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:22,863</t>
+          <t>2023-10-12 18:50:31,799</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1421,19 +1421,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, NCA</t>
+          <t>market group for heat, district or industrial, natural gas</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>RER</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:22,864</t>
+          <t>2023-10-12 18:50:31,799</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1466,19 +1466,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>market group for heat, district or industrial, natural gas</t>
+          <t>battery cell production, Li-ion, NMC811</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>GLO</t>
+          <t>CN</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:22,864</t>
+          <t>2023-10-12 18:50:31,799</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1511,19 +1511,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>market for heat pump, heat and power co-generation unit, 160kW electrical</t>
+          <t>heat production, at heat pump 30kW, allocation exergy</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>GLO</t>
+          <t>CH</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:22,864</t>
+          <t>2023-10-12 18:50:31,799</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, NCA</t>
+          <t>battery cell production, Li-ion, NMC811</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:22,865</t>
+          <t>2023-10-12 18:50:31,799</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, LFP</t>
+          <t>heat production, at heat pump 30kW, allocation exergy</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1613,7 +1613,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:22,865</t>
+          <t>2023-10-12 18:50:31,800</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1646,19 +1646,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>battery cell production, NMC-622</t>
+          <t>battery cell production, Li-ion, NCA</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>GLO</t>
+          <t>CN</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:22,865</t>
+          <t>2023-10-12 18:50:31,800</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>battery cell production, PLIB</t>
+          <t>market group for heat, district or industrial, natural gas</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1703,7 +1703,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:23,535</t>
+          <t>2023-10-12 18:50:31,801</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>created</t>
+          <t>updated</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1736,19 +1736,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>market for battery cell production</t>
+          <t>battery cell production, Li-ion, NCA</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>GLO</t>
+          <t>RoW</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:23,566</t>
+          <t>2023-10-12 18:50:31,801</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>created</t>
+          <t>updated</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1781,19 +1781,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>market for heat</t>
+          <t>battery cell production, Li-ion, LFP</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>GLO</t>
+          <t>RoW</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:25,154</t>
+          <t>2023-10-12 18:50:31,801</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1818,27 +1818,27 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>SSP2-RCP26</t>
+          <t>SSP2-Base</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2021</v>
+        <v>2040</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, LFP</t>
+          <t>battery cell production, NMC-622</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GLO</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:25,155</t>
+          <t>2023-10-12 18:50:31,801</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1863,27 +1863,27 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SSP2-RCP26</t>
+          <t>SSP2-Base</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2021</v>
+        <v>2040</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>market group for heat, district or industrial, natural gas</t>
+          <t>battery cell production, PLIB</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>RER</t>
+          <t>GLO</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:25,155</t>
+          <t>2023-10-12 18:50:32,654</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>updated</t>
+          <t>created</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1908,27 +1908,27 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>SSP2-RCP26</t>
+          <t>SSP2-Base</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2021</v>
+        <v>2040</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, NMC811</t>
+          <t>market for battery cell production</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GLO</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:25,156</t>
+          <t>2023-10-12 18:50:32,680</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>updated</t>
+          <t>created</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1953,27 +1953,27 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>SSP2-RCP26</t>
+          <t>SSP2-Base</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2021</v>
+        <v>2040</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, NMC811</t>
+          <t>market for heat</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>RoW</t>
+          <t>GLO</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:25,157</t>
+          <t>2023-10-12 18:50:34,323</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, NCA</t>
+          <t>battery cell production, Li-ion, LFP</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2018,7 +2018,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:25,158</t>
+          <t>2023-10-12 18:50:34,324</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2051,19 +2051,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>market group for heat, district or industrial, natural gas</t>
+          <t>heat production, at heat pump 30kW, allocation exergy</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>GLO</t>
+          <t>Europe without Switzerland</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:25,158</t>
+          <t>2023-10-12 18:50:34,324</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2096,19 +2096,19 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>market for heat pump, heat and power co-generation unit, 160kW electrical</t>
+          <t>market group for heat, district or industrial, natural gas</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>GLO</t>
+          <t>RER</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:25,158</t>
+          <t>2023-10-12 18:50:34,324</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, NCA</t>
+          <t>battery cell production, Li-ion, NMC811</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>RoW</t>
+          <t>CN</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:25,159</t>
+          <t>2023-10-12 18:50:34,324</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, LFP</t>
+          <t>heat production, at heat pump 30kW, allocation exergy</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>RoW</t>
+          <t>CH</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:25,159</t>
+          <t>2023-10-12 18:50:34,324</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2231,19 +2231,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>battery cell production, NMC-622</t>
+          <t>battery cell production, Li-ion, NMC811</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>GLO</t>
+          <t>RoW</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:25,159</t>
+          <t>2023-10-12 18:50:34,324</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2276,19 +2276,19 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>battery cell production, PLIB</t>
+          <t>heat production, at heat pump 30kW, allocation exergy</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>GLO</t>
+          <t>RoW</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:25,806</t>
+          <t>2023-10-12 18:50:34,325</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>created</t>
+          <t>updated</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2321,19 +2321,19 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>market for battery cell production</t>
+          <t>battery cell production, Li-ion, NCA</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>GLO</t>
+          <t>CN</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:25,828</t>
+          <t>2023-10-12 18:50:34,325</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>created</t>
+          <t>updated</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>market for heat</t>
+          <t>market group for heat, district or industrial, natural gas</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2378,7 +2378,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:27,416</t>
+          <t>2023-10-12 18:50:34,326</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2407,23 +2407,23 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, LFP</t>
+          <t>battery cell production, Li-ion, NCA</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>RoW</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:27,416</t>
+          <t>2023-10-12 18:50:34,326</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2452,23 +2452,23 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>market group for heat, district or industrial, natural gas</t>
+          <t>battery cell production, Li-ion, LFP</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>RER</t>
+          <t>RoW</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:27,416</t>
+          <t>2023-10-12 18:50:34,326</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2497,23 +2497,23 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, NMC811</t>
+          <t>battery cell production, NMC-622</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GLO</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:27,417</t>
+          <t>2023-10-12 18:50:34,326</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2542,23 +2542,23 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, NMC811</t>
+          <t>battery cell production, PLIB</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>RoW</t>
+          <t>GLO</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:27,417</t>
+          <t>2023-10-12 18:50:35,223</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>updated</t>
+          <t>created</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2587,23 +2587,23 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, NCA</t>
+          <t>market for battery cell production</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GLO</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:27,417</t>
+          <t>2023-10-12 18:50:35,247</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>updated</t>
+          <t>created</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2632,11 +2632,11 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>market group for heat, district or industrial, natural gas</t>
+          <t>market for heat</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2648,7 +2648,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:27,417</t>
+          <t>2023-10-12 18:50:36,881</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2681,19 +2681,19 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>market for heat pump, heat and power co-generation unit, 160kW electrical</t>
+          <t>battery cell production, Li-ion, LFP</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>GLO</t>
+          <t>CN</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:27,418</t>
+          <t>2023-10-12 18:50:36,882</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2726,19 +2726,19 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, NCA</t>
+          <t>heat production, at heat pump 30kW, allocation exergy</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>RoW</t>
+          <t>Europe without Switzerland</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:27,418</t>
+          <t>2023-10-12 18:50:36,883</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2771,19 +2771,19 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, LFP</t>
+          <t>market group for heat, district or industrial, natural gas</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>RoW</t>
+          <t>RER</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:27,418</t>
+          <t>2023-10-12 18:50:36,883</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2816,19 +2816,19 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>battery cell production, NMC-622</t>
+          <t>battery cell production, Li-ion, NMC811</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>GLO</t>
+          <t>CN</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:27,418</t>
+          <t>2023-10-12 18:50:36,883</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2861,19 +2861,19 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>battery cell production, PLIB</t>
+          <t>heat production, at heat pump 30kW, allocation exergy</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>GLO</t>
+          <t>CH</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:27,863</t>
+          <t>2023-10-12 18:50:36,883</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>created</t>
+          <t>updated</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2906,19 +2906,19 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>market for battery cell production</t>
+          <t>battery cell production, Li-ion, NMC811</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>GLO</t>
+          <t>RoW</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2023-10-12 13:54:27,889</t>
+          <t>2023-10-12 18:50:36,883</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>created</t>
+          <t>updated</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2951,19 +2951,19 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>market for heat</t>
+          <t>heat production, at heat pump 30kW, allocation exergy</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>GLO</t>
+          <t>RoW</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2023-10-12 16:05:32,301</t>
+          <t>2023-10-12 18:50:36,884</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2988,15 +2988,15 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SSP2-Base</t>
+          <t>SSP2-RCP26</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2021</v>
+        <v>2040</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, LFP</t>
+          <t>battery cell production, Li-ion, NCA</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3008,7 +3008,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2023-10-12 16:05:32,301</t>
+          <t>2023-10-12 18:50:36,885</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3033,11 +3033,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>SSP2-Base</t>
+          <t>SSP2-RCP26</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2021</v>
+        <v>2040</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -3046,14 +3046,14 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>RER</t>
+          <t>GLO</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2023-10-12 16:05:32,301</t>
+          <t>2023-10-12 18:50:36,886</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3078,27 +3078,27 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>SSP2-Base</t>
+          <t>SSP2-RCP26</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2021</v>
+        <v>2040</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, NMC811</t>
+          <t>battery cell production, Li-ion, NCA</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>RoW</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2023-10-12 16:05:32,302</t>
+          <t>2023-10-12 18:50:36,886</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3123,15 +3123,15 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>SSP2-Base</t>
+          <t>SSP2-RCP26</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2021</v>
+        <v>2040</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, NMC811</t>
+          <t>battery cell production, Li-ion, LFP</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3143,7 +3143,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2023-10-12 16:05:32,302</t>
+          <t>2023-10-12 18:50:36,886</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3168,27 +3168,27 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>SSP2-Base</t>
+          <t>SSP2-RCP26</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2021</v>
+        <v>2040</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, NCA</t>
+          <t>battery cell production, NMC-622</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GLO</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2023-10-12 16:05:32,302</t>
+          <t>2023-10-12 18:50:36,886</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3213,15 +3213,15 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>SSP2-Base</t>
+          <t>SSP2-RCP26</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2021</v>
+        <v>2040</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>market group for heat, district or industrial, natural gas</t>
+          <t>battery cell production, PLIB</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3233,7 +3233,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2023-10-12 16:05:32,303</t>
+          <t>2023-10-12 18:50:38,104</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>updated</t>
+          <t>created</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3258,15 +3258,15 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>SSP2-Base</t>
+          <t>SSP2-RCP26</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2021</v>
+        <v>2040</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>market for heat pump, heat and power co-generation unit, 160kW electrical</t>
+          <t>market for battery cell production</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3278,7 +3278,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2023-10-12 16:05:32,303</t>
+          <t>2023-10-12 18:50:38,137</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>updated</t>
+          <t>created</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3303,1998 +3303,18 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>SSP2-Base</t>
+          <t>SSP2-RCP26</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2021</v>
+        <v>2040</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>battery cell production, Li-ion, NCA</t>
+          <t>market for heat</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
-        <is>
-          <t>RoW</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:32,303</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>SSP2-Base</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>2021</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>battery cell production, Li-ion, LFP</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>RoW</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:32,303</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>SSP2-Base</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>2021</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>battery cell production, NMC-622</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>GLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:32,303</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>SSP2-Base</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>2021</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>battery cell production, PLIB</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>GLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:32,653</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>created</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>SSP2-Base</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>2021</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>market for battery cell production</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>GLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:32,665</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>created</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>SSP2-Base</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>2021</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>market for heat</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>GLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:34,308</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>SSP2-Base</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>battery cell production, Li-ion, LFP</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:34,308</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>SSP2-Base</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>market group for heat, district or industrial, natural gas</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>RER</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:34,308</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>SSP2-Base</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>battery cell production, Li-ion, NMC811</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:34,308</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>SSP2-Base</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>battery cell production, Li-ion, NMC811</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>RoW</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:34,309</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>SSP2-Base</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>battery cell production, Li-ion, NCA</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:34,309</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>SSP2-Base</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>market group for heat, district or industrial, natural gas</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>GLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:34,310</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>SSP2-Base</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>market for heat pump, heat and power co-generation unit, 160kW electrical</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>GLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:34,310</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>SSP2-Base</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>battery cell production, Li-ion, NCA</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>RoW</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:34,310</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>SSP2-Base</t>
-        </is>
-      </c>
-      <c r="G77" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>battery cell production, Li-ion, LFP</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>RoW</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:34,310</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>SSP2-Base</t>
-        </is>
-      </c>
-      <c r="G78" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>battery cell production, NMC-622</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>GLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:34,310</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>SSP2-Base</t>
-        </is>
-      </c>
-      <c r="G79" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>battery cell production, PLIB</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>GLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:34,656</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>created</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>SSP2-Base</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>market for battery cell production</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>GLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:34,668</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>created</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>SSP2-Base</t>
-        </is>
-      </c>
-      <c r="G81" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>market for heat</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>GLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:36,086</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
-        <v>2021</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>battery cell production, Li-ion, LFP</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:36,087</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
-        <v>2021</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>market group for heat, district or industrial, natural gas</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>RER</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:36,087</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G84" t="n">
-        <v>2021</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>battery cell production, Li-ion, NMC811</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:36,087</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G85" t="n">
-        <v>2021</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>battery cell production, Li-ion, NMC811</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>RoW</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:36,088</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G86" t="n">
-        <v>2021</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>battery cell production, Li-ion, NCA</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:36,088</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G87" t="n">
-        <v>2021</v>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>market group for heat, district or industrial, natural gas</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>GLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:36,088</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G88" t="n">
-        <v>2021</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>market for heat pump, heat and power co-generation unit, 160kW electrical</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>GLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:36,088</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G89" t="n">
-        <v>2021</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>battery cell production, Li-ion, NCA</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>RoW</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:36,088</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v>2021</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>battery cell production, Li-ion, LFP</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>RoW</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:36,089</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G91" t="n">
-        <v>2021</v>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>battery cell production, NMC-622</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>GLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:36,089</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G92" t="n">
-        <v>2021</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>battery cell production, PLIB</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>GLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:36,444</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>created</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G93" t="n">
-        <v>2021</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>market for battery cell production</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>GLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:36,456</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>created</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G94" t="n">
-        <v>2021</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>market for heat</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>GLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:37,551</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G95" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>battery cell production, Li-ion, LFP</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:37,552</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>market group for heat, district or industrial, natural gas</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>RER</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:37,552</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>battery cell production, Li-ion, NMC811</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:37,552</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G98" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>battery cell production, Li-ion, NMC811</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>RoW</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:37,552</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>battery cell production, Li-ion, NCA</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:37,553</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>market group for heat, district or industrial, natural gas</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>GLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:37,553</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G101" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>market for heat pump, heat and power co-generation unit, 160kW electrical</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>GLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:37,553</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G102" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>battery cell production, Li-ion, NCA</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>RoW</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:37,553</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G103" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>battery cell production, Li-ion, LFP</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>RoW</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:37,553</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G104" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>battery cell production, NMC-622</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>GLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:37,554</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G105" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>battery cell production, PLIB</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>GLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:37,920</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>created</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G106" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>market for battery cell production</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>GLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>2023-10-12 16:05:37,933</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>created</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>SSP2-RCP26</t>
-        </is>
-      </c>
-      <c r="G107" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>market for heat</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
         <is>
           <t>GLO</t>
         </is>
